--- a/rider/weekly/2017_11.xlsx
+++ b/rider/weekly/2017_11.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>413</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>224.33</c:v>
+                  <c:v>231.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.05</c:v>
+                  <c:v>212.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.05</c:v>
+                  <c:v>211.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.53</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.95</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.29</c:v>
+                  <c:v>116.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.31999999999999</c:v>
+                  <c:v>96.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>224.33</v>
+        <v>231.06</v>
       </c>
       <c r="E2">
         <v>109.81</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D3">
-        <v>211.05</v>
+        <v>212.6</v>
       </c>
       <c r="E3">
         <v>109.97</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D4">
-        <v>220.05</v>
+        <v>211.75</v>
       </c>
       <c r="E4">
         <v>110.13</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D5">
-        <v>235.53</v>
+        <v>239.89</v>
       </c>
       <c r="E5">
         <v>110.3</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="D6">
-        <v>236.95</v>
+        <v>237.5</v>
       </c>
       <c r="E6">
         <v>110.46</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>116.29</v>
+        <v>116.9</v>
       </c>
       <c r="E7">
         <v>110.62</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>97.31999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="E8">
         <v>110.78</v>
